--- a/data/jinju_crime_grade.xlsx
+++ b/data/jinju_crime_grade.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffc02cfc20fab416/바탕 화면/DS프로젝트/위험등급데이터/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_52E685AE91B6E2FE099C9290E22D62B1A0356407" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92FB31CD-98F2-41E3-901B-7F4367C4A5EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,57 +22,57 @@
     <t>위험등급</t>
   </si>
   <si>
+    <t>평거동</t>
+  </si>
+  <si>
+    <t>하대동</t>
+  </si>
+  <si>
     <t>가호동</t>
   </si>
   <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>천전동</t>
+  </si>
+  <si>
     <t>상대동</t>
   </si>
   <si>
+    <t>신안동</t>
+  </si>
+  <si>
+    <t>초장동</t>
+  </si>
+  <si>
     <t>상봉동</t>
   </si>
   <si>
+    <t>성북동</t>
+  </si>
+  <si>
     <t>상평동</t>
   </si>
   <si>
-    <t>성북동</t>
-  </si>
-  <si>
-    <t>신안동</t>
+    <t>충무공동</t>
   </si>
   <si>
     <t>이현동</t>
   </si>
   <si>
-    <t>중앙동</t>
-  </si>
-  <si>
-    <t>천전동</t>
-  </si>
-  <si>
-    <t>초장동</t>
-  </si>
-  <si>
-    <t>충무공동</t>
-  </si>
-  <si>
     <t>판문동</t>
-  </si>
-  <si>
-    <t>평거동</t>
-  </si>
-  <si>
-    <t>하대동</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,15 +80,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,25 +127,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,47 +433,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -506,39 +481,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -546,32 +521,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>